--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Ezz El Din Ahmed Farouk Ahmed Robashy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
   </x:si>
   <x:si>
     <x:t>1210256</x:t>
@@ -350,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1187,7 +1196,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1460,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -102,7 +102,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1220044</x:t>
@@ -668,7 +668,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.400625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -189,7 +189,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1200244</x:t>

--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -1100,7 +1100,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.6990350347</x:v>
+        <x:v>45928.2183115741</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد انور محمد على محمد صابر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Anwar Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210041</x:t>
@@ -359,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -750,7 +759,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4145110764</x:v>
+        <x:v>45929.4897952199</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -782,7 +791,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.5682872685</x:v>
+        <x:v>45906.4145110764</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -814,7 +823,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45906.5682872685</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -846,7 +855,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4149930903</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -878,7 +887,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.5271128125</x:v>
+        <x:v>45906.4149930903</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -910,7 +919,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4146526273</x:v>
+        <x:v>45912.5271128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6652448264</x:v>
+        <x:v>45906.4146526273</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45907.6652448264</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4151528125</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45907.4151528125</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1066,9 +1075,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1091,16 +1102,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45928.2183115741</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4144871528</x:v>
+        <x:v>45928.2183115741</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45906.4144871528</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.7718626157</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1510,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,15 +136,6 @@
   </x:si>
   <x:si>
     <x:t>شهد هشام ابراهيم المنير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد محمد مهدي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman mohamed mohamed mahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210151</x:t>
@@ -368,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1141,7 +1132,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45928.2183115741</x:v>
+        <x:v>45906.4144871528</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4144871528</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.7718626157</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1510,38 +1501,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.6656088773</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Tutorial-35049.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35049.xlsx
@@ -33,13 +33,13 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4250205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد انور محمد على محمد صابر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Anwar Mohammed</x:t>
+    <x:t>1113848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ابراهيم محمد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ibrahim Mohammed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210041</x:t>
@@ -669,7 +669,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="28.540625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.240625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -750,7 +750,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45929.4897952199</x:v>
+        <x:v>45943.5780837153</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
